--- a/processed_data/handcoded_cleaned/Babylab_WesternSydney_6-9m_bi_GF_Trial.xlsx
+++ b/processed_data/handcoded_cleaned/Babylab_WesternSydney_6-9m_bi_GF_Trial.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21301"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E588A7-4D0D-4EA3-A1BA-600E39CFA779}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="10515" windowHeight="5190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="40" windowWidth="11060" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="74">
   <si>
     <t>lab</t>
   </si>
@@ -54,9 +56,6 @@
   </si>
   <si>
     <t>fixation_congruent</t>
-  </si>
-  <si>
-    <t>fixation_incongrent</t>
   </si>
   <si>
     <t>trial_error</t>
@@ -254,8 +253,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,19 +625,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45">
+    <row r="1" spans="1:14" ht="42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,21 +669,21 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>8611</v>
@@ -693,13 +692,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>1.38</v>
@@ -717,15 +716,15 @@
         <v>0.56499999999999995</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>8611</v>
@@ -734,13 +733,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
       <c r="G3">
         <v>3.9980000000000002</v>
@@ -758,15 +757,15 @@
         <v>0.69399999999999995</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>8611</v>
@@ -775,13 +774,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>1.6359999999999999</v>
@@ -799,15 +798,15 @@
         <v>1.5329999999999999</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>8611</v>
@@ -816,13 +815,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>3.0209999999999999</v>
@@ -840,15 +839,15 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>8611</v>
@@ -857,13 +856,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -881,15 +880,15 @@
         <v>3.0710000000000002</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>8611</v>
@@ -898,13 +897,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>1.111</v>
@@ -922,15 +921,15 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>8579</v>
@@ -939,13 +938,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>1.401</v>
@@ -963,15 +962,15 @@
         <v>4.4210000000000003</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>8579</v>
@@ -980,16 +979,16 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1004,15 +1003,15 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>8579</v>
@@ -1021,13 +1020,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>1.262</v>
@@ -1045,15 +1044,15 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>8579</v>
@@ -1062,13 +1061,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>1.7689999999999999</v>
@@ -1086,15 +1085,15 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>8579</v>
@@ -1103,13 +1102,13 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3.5259999999999998</v>
@@ -1127,15 +1126,15 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>8579</v>
@@ -1144,16 +1143,16 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1168,15 +1167,15 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>8651</v>
@@ -1185,13 +1184,13 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>1.7929999999999999</v>
@@ -1209,15 +1208,15 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>8651</v>
@@ -1226,13 +1225,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>2.46</v>
@@ -1250,15 +1249,15 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>8651</v>
@@ -1267,13 +1266,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>2.6059999999999999</v>
@@ -1291,15 +1290,15 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>8651</v>
@@ -1308,13 +1307,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1332,15 +1331,15 @@
         <v>3.113</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>8651</v>
@@ -1349,13 +1348,13 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1373,15 +1372,15 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>8651</v>
@@ -1390,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>5.109</v>
@@ -1414,15 +1413,15 @@
         <v>0.4</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>2066</v>
@@ -1431,13 +1430,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20">
         <v>3.7570000000000001</v>
@@ -1455,15 +1454,15 @@
         <v>0.34599999999999997</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>2066</v>
@@ -1472,13 +1471,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <v>0.20499999999999999</v>
@@ -1496,15 +1495,15 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>2066</v>
@@ -1513,13 +1512,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22">
         <v>2.3380000000000001</v>
@@ -1537,15 +1536,15 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2066</v>
@@ -1554,13 +1553,13 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23">
         <v>1.976</v>
@@ -1578,15 +1577,15 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>2066</v>
@@ -1595,13 +1594,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <v>1.044</v>
@@ -1619,15 +1618,15 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>2066</v>
@@ -1636,13 +1635,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <v>1.7190000000000001</v>
@@ -1660,15 +1659,15 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>2101</v>
@@ -1677,16 +1676,16 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1701,15 +1700,15 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2101</v>
@@ -1718,13 +1717,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27">
         <v>4.03</v>
@@ -1742,15 +1741,15 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>2101</v>
@@ -1759,16 +1758,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1783,15 +1782,15 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>2101</v>
@@ -1800,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29">
         <v>2.3519999999999999</v>
@@ -1824,15 +1823,15 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>2101</v>
@@ -1841,13 +1840,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30">
         <v>4.49</v>
@@ -1865,15 +1864,15 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31">
         <v>2101</v>
@@ -1882,13 +1881,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31">
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31">
         <v>2.512</v>
@@ -1906,15 +1905,15 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>2108</v>
@@ -1923,13 +1922,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32">
         <v>2.1230000000000002</v>
@@ -1947,15 +1946,15 @@
         <v>0.371</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>2108</v>
@@ -1964,13 +1963,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1988,15 +1987,15 @@
         <v>3.3029999999999999</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>2108</v>
@@ -2005,13 +2004,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34">
         <v>1.849</v>
@@ -2029,15 +2028,15 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>2108</v>
@@ -2046,13 +2045,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35">
         <v>1.869</v>
@@ -2070,15 +2069,15 @@
         <v>1.0269999999999999</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>2108</v>
@@ -2087,13 +2086,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36">
         <v>1.3340000000000001</v>
@@ -2111,15 +2110,15 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>2108</v>
@@ -2128,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37">
         <v>1.587</v>
@@ -2152,15 +2151,15 @@
         <v>1.1619999999999999</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>2155</v>
@@ -2169,13 +2168,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38">
         <v>1.4379999999999999</v>
@@ -2193,15 +2192,15 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>2155</v>
@@ -2210,13 +2209,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39">
         <v>2.5840000000000001</v>
@@ -2234,15 +2233,15 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>2155</v>
@@ -2251,13 +2250,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40">
         <v>1.1399999999999999</v>
@@ -2275,15 +2274,15 @@
         <v>1.2370000000000001</v>
       </c>
       <c r="L40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>2155</v>
@@ -2292,13 +2291,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41">
         <v>3.2189999999999999</v>
@@ -2316,15 +2315,15 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>2155</v>
@@ -2333,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42">
         <v>1.2689999999999999</v>
@@ -2357,15 +2356,15 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>2155</v>
@@ -2374,13 +2373,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>2.3519999999999999</v>
@@ -2398,15 +2397,15 @@
         <v>1.284</v>
       </c>
       <c r="L43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>2171</v>
@@ -2415,13 +2414,13 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G44">
         <v>0.95799999999999996</v>
@@ -2439,15 +2438,15 @@
         <v>1.2430000000000001</v>
       </c>
       <c r="L44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>2171</v>
@@ -2456,13 +2455,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
         <v>19</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>20</v>
       </c>
       <c r="G45">
         <v>2.5289999999999999</v>
@@ -2480,15 +2479,15 @@
         <v>0.78</v>
       </c>
       <c r="L45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
         <v>2171</v>
@@ -2497,13 +2496,13 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46">
         <v>2.17</v>
@@ -2521,15 +2520,15 @@
         <v>2.0190000000000001</v>
       </c>
       <c r="L46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>2171</v>
@@ -2538,13 +2537,13 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47">
         <v>0.54900000000000004</v>
@@ -2562,15 +2561,15 @@
         <v>1.0449999999999999</v>
       </c>
       <c r="L47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>2171</v>
@@ -2579,13 +2578,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2603,15 +2602,15 @@
         <v>0.432</v>
       </c>
       <c r="L48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>2171</v>
@@ -2620,13 +2619,13 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49">
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G49">
         <v>2.601</v>
@@ -2644,15 +2643,15 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="L49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>2255</v>
@@ -2661,13 +2660,13 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50">
         <v>2.58</v>
@@ -2685,15 +2684,15 @@
         <v>1.738</v>
       </c>
       <c r="L50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>2255</v>
@@ -2702,13 +2701,13 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51">
         <v>3.2909999999999999</v>
@@ -2726,15 +2725,15 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>2255</v>
@@ -2743,13 +2742,13 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52">
         <v>2.7509999999999999</v>
@@ -2767,15 +2766,15 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>2255</v>
@@ -2784,13 +2783,13 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53">
         <v>4.548</v>
@@ -2808,15 +2807,15 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="L53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>2255</v>
@@ -2825,13 +2824,13 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E54">
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G54">
         <v>3.863</v>
@@ -2849,15 +2848,15 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>2255</v>
@@ -2866,13 +2865,13 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55">
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G55">
         <v>2.839</v>
@@ -2890,15 +2889,15 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>2344</v>
@@ -2907,13 +2906,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56">
         <v>2.605</v>
@@ -2931,15 +2930,15 @@
         <v>2.198</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>2344</v>
@@ -2948,13 +2947,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57">
         <v>2.694</v>
@@ -2972,15 +2971,15 @@
         <v>1.153</v>
       </c>
       <c r="L57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>2344</v>
@@ -2989,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3013,15 +3012,15 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59">
         <v>2344</v>
@@ -3030,13 +3029,13 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E59">
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59">
         <v>4165</v>
@@ -3054,15 +3053,15 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="L59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60">
         <v>2344</v>
@@ -3071,13 +3070,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E60">
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G60">
         <v>2.577</v>
@@ -3095,15 +3094,15 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="L60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61">
         <v>2344</v>
@@ -3112,13 +3111,13 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E61">
         <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61">
         <v>3.6619999999999999</v>
@@ -3136,15 +3135,15 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62">
         <v>2196</v>
@@ -3153,13 +3152,13 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62">
         <v>1.3120000000000001</v>
@@ -3177,15 +3176,15 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63">
         <v>2196</v>
@@ -3194,13 +3193,13 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>4.0949999999999998</v>
@@ -3218,15 +3217,15 @@
         <v>1.3120000000000001</v>
       </c>
       <c r="L63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64">
         <v>2196</v>
@@ -3235,13 +3234,13 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G64">
         <v>1.7030000000000001</v>
@@ -3259,15 +3258,15 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>2196</v>
@@ -3276,16 +3275,16 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E65">
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3300,15 +3299,15 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66">
         <v>2196</v>
@@ -3317,13 +3316,13 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E66">
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66">
         <v>3.968</v>
@@ -3341,15 +3340,15 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67">
         <v>2196</v>
@@ -3358,16 +3357,16 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67">
         <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3382,15 +3381,15 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68">
         <v>2396</v>
@@ -3399,16 +3398,16 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3423,15 +3422,15 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69">
         <v>2396</v>
@@ -3440,13 +3439,13 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69">
         <v>1.92</v>
@@ -3464,15 +3463,15 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70">
         <v>2396</v>
@@ -3481,13 +3480,13 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E70">
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G70">
         <v>1.44</v>
@@ -3505,15 +3504,15 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>2396</v>
@@ -3522,16 +3521,16 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E71">
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3546,15 +3545,15 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72">
         <v>2396</v>
@@ -3563,13 +3562,13 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E72">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G72">
         <v>1.248</v>
@@ -3587,15 +3586,15 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73">
         <v>2396</v>
@@ -3604,13 +3603,13 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73">
         <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G73">
         <v>1.216</v>
@@ -3628,15 +3627,15 @@
         <v>2.0150000000000001</v>
       </c>
       <c r="L73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74">
         <v>2194</v>
@@ -3645,16 +3644,16 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3669,15 +3668,15 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75">
         <v>2194</v>
@@ -3686,13 +3685,13 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3710,15 +3709,15 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B76">
         <v>2194</v>
@@ -3727,13 +3726,13 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3751,15 +3750,15 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77">
         <v>2194</v>
@@ -3768,16 +3767,16 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77">
         <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3792,15 +3791,15 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B78">
         <v>2194</v>
@@ -3809,16 +3808,16 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E78">
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3833,15 +3832,15 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79">
         <v>2194</v>
@@ -3850,16 +3849,16 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79">
         <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3874,15 +3873,15 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80">
         <v>2208</v>
@@ -3891,13 +3890,13 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G80">
         <v>1.9850000000000001</v>
@@ -3915,15 +3914,15 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81">
         <v>2208</v>
@@ -3932,16 +3931,16 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3956,15 +3955,15 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B82">
         <v>2208</v>
@@ -3973,16 +3972,16 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E82">
         <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3997,15 +3996,15 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>2208</v>
@@ -4014,13 +4013,13 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E83">
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4038,15 +4037,15 @@
         <v>3.7450000000000001</v>
       </c>
       <c r="L83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84">
         <v>2208</v>
@@ -4055,13 +4054,13 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E84">
         <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G84">
         <v>3.169</v>
@@ -4079,15 +4078,15 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85">
         <v>2208</v>
@@ -4096,16 +4095,16 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E85">
         <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4120,15 +4119,15 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86">
         <v>2276</v>
@@ -4137,13 +4136,13 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G86">
         <v>1.569</v>
@@ -4161,15 +4160,15 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="L86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87">
         <v>2276</v>
@@ -4178,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G87">
         <v>1.121</v>
@@ -4202,15 +4201,15 @@
         <v>1.4730000000000001</v>
       </c>
       <c r="L87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88">
         <v>2276</v>
@@ -4219,16 +4218,16 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E88">
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4243,15 +4242,15 @@
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89">
         <v>2276</v>
@@ -4260,13 +4259,13 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E89">
         <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G89">
         <v>1.472</v>
@@ -4284,15 +4283,15 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B90">
         <v>2276</v>
@@ -4301,13 +4300,13 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E90">
         <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G90">
         <v>5.6280000000000001</v>
@@ -4325,15 +4324,15 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91">
         <v>2276</v>
@@ -4342,16 +4341,16 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E91">
         <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4366,15 +4365,15 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92">
         <v>2274</v>
@@ -4383,13 +4382,13 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G92">
         <v>5.181</v>
@@ -4407,15 +4406,15 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B93">
         <v>2274</v>
@@ -4424,16 +4423,16 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4448,15 +4447,15 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B94">
         <v>2274</v>
@@ -4465,13 +4464,13 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G94">
         <v>2.593</v>
@@ -4489,15 +4488,15 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95">
         <v>2274</v>
@@ -4506,16 +4505,16 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E95">
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4530,15 +4529,15 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B96">
         <v>2274</v>
@@ -4547,13 +4546,13 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E96">
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G96">
         <v>0.89700000000000002</v>
@@ -4571,15 +4570,15 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97">
         <v>2274</v>
@@ -4588,13 +4587,13 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E97">
         <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>1.121</v>
@@ -4612,50 +4611,55 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="L97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4663,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4677,13 +4681,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
         <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4691,13 +4695,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4705,13 +4709,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4719,13 +4723,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
         <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4733,13 +4737,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4747,10 +4751,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4758,10 +4762,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4769,10 +4773,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4780,64 +4784,74 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
         <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
         <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/processed_data/handcoded_cleaned/Babylab_WesternSydney_6-9m_bi_GF_Trial.xlsx
+++ b/processed_data/handcoded_cleaned/Babylab_WesternSydney_6-9m_bi_GF_Trial.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21421"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{579D5716-6A28-44B9-A30E-ADA617B3D30A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="40" windowWidth="11060" windowHeight="14400"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="10515" windowHeight="5190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="6-9m_Bil" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="44">
   <si>
     <t>lab</t>
   </si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>fixation_congruent</t>
+  </si>
+  <si>
+    <t>fixation_incongrent</t>
   </si>
   <si>
     <t>trial_error</t>
@@ -156,105 +156,12 @@
   <si>
     <t>incongruent</t>
   </si>
-  <si>
-    <t>GENERAL NOTE: all fields should be filled out for each participant.</t>
-  </si>
-  <si>
-    <t>If any fields are unknown, don't apply, or are missing, use the code NA</t>
-  </si>
-  <si>
-    <t>Variable name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Levels</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>&lt;your lab ID&gt;</t>
-  </si>
-  <si>
-    <t>your unique lab ID</t>
-  </si>
-  <si>
-    <t>&lt;participant ID codes&gt;</t>
-  </si>
-  <si>
-    <t>unique (within lab) ID for the participant</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>range 1-4</t>
-  </si>
-  <si>
-    <t>Study order used for infant</t>
-  </si>
-  <si>
-    <t>e.g., 'ECR1', 'ECR1f'</t>
-  </si>
-  <si>
-    <t>the actual video file that was playing</t>
-  </si>
-  <si>
-    <t>range 1-6</t>
-  </si>
-  <si>
-    <t>trial number, from 1 -- 6</t>
-  </si>
-  <si>
-    <t>congruent' 'incongruent</t>
-  </si>
-  <si>
-    <t>the target of the first face-to-object saccade.  NA if no face-to-object saccades</t>
-  </si>
-  <si>
-    <t>time in miliseconds after trial onset for first face-to-object saccade, in the window from 4000ms to trial end</t>
-  </si>
-  <si>
-    <t>number of face-to-congruent object saccades in the window from 4000ms to trial end</t>
-  </si>
-  <si>
-    <t>number of face-to-incongruent object saccades in the window from 4000ms to trial end</t>
-  </si>
-  <si>
-    <t>duration of fixations in miliseconds to congruent object in window of analysis, 4000ms to trial end</t>
-  </si>
-  <si>
-    <t>fixation_incongruent</t>
-  </si>
-  <si>
-    <t>duration of fixations in miliseconds to incongruent object in window of analysis, 4000ms to trial end</t>
-  </si>
-  <si>
-    <t>noerror', 'error'</t>
-  </si>
-  <si>
-    <t>trial should be excluded</t>
-  </si>
-  <si>
-    <t>open ended string</t>
-  </si>
-  <si>
-    <t>open ended</t>
-  </si>
-  <si>
-    <t>NA, or reason for error, suggestions are "experimenter error" or "parent interference"</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,7 +307,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,19 +532,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="42">
+    <row r="1" spans="1:14" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,21 +576,21 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>8611</v>
@@ -692,13 +599,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>1.38</v>
@@ -716,15 +623,15 @@
         <v>0.56499999999999995</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>8611</v>
@@ -733,13 +640,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>3.9980000000000002</v>
@@ -757,15 +664,15 @@
         <v>0.69399999999999995</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>8611</v>
@@ -774,13 +681,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>1.6359999999999999</v>
@@ -798,15 +705,15 @@
         <v>1.5329999999999999</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>8611</v>
@@ -815,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>3.0209999999999999</v>
@@ -839,15 +746,15 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>8611</v>
@@ -856,16 +763,16 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -880,15 +787,15 @@
         <v>3.0710000000000002</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>8611</v>
@@ -897,13 +804,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>1.111</v>
@@ -921,15 +828,15 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>8579</v>
@@ -938,13 +845,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>1.401</v>
@@ -962,15 +869,15 @@
         <v>4.4210000000000003</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>8579</v>
@@ -979,16 +886,16 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1003,15 +910,15 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>8579</v>
@@ -1020,13 +927,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>1.262</v>
@@ -1044,15 +951,15 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>8579</v>
@@ -1061,13 +968,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>1.7689999999999999</v>
@@ -1085,15 +992,15 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>8579</v>
@@ -1102,13 +1009,13 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3.5259999999999998</v>
@@ -1126,15 +1033,15 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>8579</v>
@@ -1143,16 +1050,16 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1167,15 +1074,15 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>8651</v>
@@ -1184,13 +1091,13 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>1.7929999999999999</v>
@@ -1208,15 +1115,15 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>8651</v>
@@ -1225,13 +1132,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15">
         <v>2.46</v>
@@ -1249,15 +1156,15 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>8651</v>
@@ -1266,13 +1173,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>2.6059999999999999</v>
@@ -1290,15 +1197,15 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>8651</v>
@@ -1307,16 +1214,16 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1331,15 +1238,15 @@
         <v>3.113</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>8651</v>
@@ -1348,16 +1255,16 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1372,15 +1279,15 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>8651</v>
@@ -1389,13 +1296,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>5.109</v>
@@ -1413,15 +1320,15 @@
         <v>0.4</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>2066</v>
@@ -1430,13 +1337,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20">
         <v>3.7570000000000001</v>
@@ -1454,15 +1361,15 @@
         <v>0.34599999999999997</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>2066</v>
@@ -1471,13 +1378,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <v>0.20499999999999999</v>
@@ -1495,15 +1402,15 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>2066</v>
@@ -1512,13 +1419,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22">
         <v>2.3380000000000001</v>
@@ -1536,15 +1443,15 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>2066</v>
@@ -1553,13 +1460,13 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23">
         <v>1.976</v>
@@ -1577,15 +1484,15 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>2066</v>
@@ -1594,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24">
         <v>1.044</v>
@@ -1618,15 +1525,15 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>2066</v>
@@ -1635,13 +1542,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25">
         <v>1.7190000000000001</v>
@@ -1659,15 +1566,15 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>2101</v>
@@ -1676,16 +1583,16 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1700,15 +1607,15 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>2101</v>
@@ -1717,13 +1624,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27">
         <v>4.03</v>
@@ -1741,15 +1648,15 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>2101</v>
@@ -1758,16 +1665,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1782,15 +1689,15 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>2101</v>
@@ -1799,13 +1706,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29">
         <v>2.3519999999999999</v>
@@ -1823,15 +1730,15 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>2101</v>
@@ -1840,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30">
         <v>4.49</v>
@@ -1864,15 +1771,15 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <v>2101</v>
@@ -1881,13 +1788,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31">
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31">
         <v>2.512</v>
@@ -1905,15 +1812,15 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>2108</v>
@@ -1922,13 +1829,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32">
         <v>2.1230000000000002</v>
@@ -1946,15 +1853,15 @@
         <v>0.371</v>
       </c>
       <c r="L32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>2108</v>
@@ -1963,16 +1870,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1987,15 +1894,15 @@
         <v>3.3029999999999999</v>
       </c>
       <c r="L33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>2108</v>
@@ -2004,13 +1911,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34">
         <v>1.849</v>
@@ -2028,15 +1935,15 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>2108</v>
@@ -2045,13 +1952,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35">
         <v>1.869</v>
@@ -2069,15 +1976,15 @@
         <v>1.0269999999999999</v>
       </c>
       <c r="L35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>2108</v>
@@ -2086,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36">
         <v>1.3340000000000001</v>
@@ -2110,15 +2017,15 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>2108</v>
@@ -2127,13 +2034,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G37">
         <v>1.587</v>
@@ -2151,15 +2058,15 @@
         <v>1.1619999999999999</v>
       </c>
       <c r="L37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>2155</v>
@@ -2168,13 +2075,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38">
         <v>1.4379999999999999</v>
@@ -2192,15 +2099,15 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>2155</v>
@@ -2209,13 +2116,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39">
         <v>2.5840000000000001</v>
@@ -2233,15 +2140,15 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>2155</v>
@@ -2250,13 +2157,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40">
         <v>1.1399999999999999</v>
@@ -2274,15 +2181,15 @@
         <v>1.2370000000000001</v>
       </c>
       <c r="L40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>2155</v>
@@ -2291,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41">
         <v>3.2189999999999999</v>
@@ -2315,15 +2222,15 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>2155</v>
@@ -2332,13 +2239,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42">
         <v>1.2689999999999999</v>
@@ -2356,15 +2263,15 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>2155</v>
@@ -2373,13 +2280,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43">
         <v>2.3519999999999999</v>
@@ -2397,15 +2304,15 @@
         <v>1.284</v>
       </c>
       <c r="L43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>2171</v>
@@ -2414,13 +2321,13 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G44">
         <v>0.95799999999999996</v>
@@ -2438,15 +2345,15 @@
         <v>1.2430000000000001</v>
       </c>
       <c r="L44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <v>2171</v>
@@ -2455,13 +2362,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45">
         <v>2.5289999999999999</v>
@@ -2479,15 +2386,15 @@
         <v>0.78</v>
       </c>
       <c r="L45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>2171</v>
@@ -2496,13 +2403,13 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G46">
         <v>2.17</v>
@@ -2520,15 +2427,15 @@
         <v>2.0190000000000001</v>
       </c>
       <c r="L46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47">
         <v>2171</v>
@@ -2537,13 +2444,13 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47">
         <v>0.54900000000000004</v>
@@ -2561,15 +2468,15 @@
         <v>1.0449999999999999</v>
       </c>
       <c r="L47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48">
         <v>2171</v>
@@ -2578,16 +2485,16 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E48">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2602,15 +2509,15 @@
         <v>0.432</v>
       </c>
       <c r="L48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>2171</v>
@@ -2619,13 +2526,13 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49">
         <v>2.601</v>
@@ -2643,15 +2550,15 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="L49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50">
         <v>2255</v>
@@ -2660,13 +2567,13 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G50">
         <v>2.58</v>
@@ -2684,15 +2591,15 @@
         <v>1.738</v>
       </c>
       <c r="L50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>2255</v>
@@ -2701,13 +2608,13 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51">
         <v>3.2909999999999999</v>
@@ -2725,15 +2632,15 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B52">
         <v>2255</v>
@@ -2742,13 +2649,13 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G52">
         <v>2.7509999999999999</v>
@@ -2766,15 +2673,15 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53">
         <v>2255</v>
@@ -2783,13 +2690,13 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G53">
         <v>4.548</v>
@@ -2807,15 +2714,15 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="L53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>2255</v>
@@ -2824,13 +2731,13 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E54">
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G54">
         <v>3.863</v>
@@ -2848,15 +2755,15 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B55">
         <v>2255</v>
@@ -2865,13 +2772,13 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E55">
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G55">
         <v>2.839</v>
@@ -2889,15 +2796,15 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>2344</v>
@@ -2906,13 +2813,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G56">
         <v>2.605</v>
@@ -2930,15 +2837,15 @@
         <v>2.198</v>
       </c>
       <c r="L56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B57">
         <v>2344</v>
@@ -2947,13 +2854,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G57">
         <v>2.694</v>
@@ -2971,15 +2878,15 @@
         <v>1.153</v>
       </c>
       <c r="L57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B58">
         <v>2344</v>
@@ -2988,16 +2895,16 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3012,15 +2919,15 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>2344</v>
@@ -3029,13 +2936,13 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E59">
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G59">
         <v>4165</v>
@@ -3053,15 +2960,15 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="L59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B60">
         <v>2344</v>
@@ -3070,13 +2977,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E60">
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G60">
         <v>2.577</v>
@@ -3094,15 +3001,15 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="L60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61">
         <v>2344</v>
@@ -3111,13 +3018,13 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E61">
         <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G61">
         <v>3.6619999999999999</v>
@@ -3135,15 +3042,15 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62">
         <v>2196</v>
@@ -3152,13 +3059,13 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G62">
         <v>1.3120000000000001</v>
@@ -3176,15 +3083,15 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B63">
         <v>2196</v>
@@ -3193,13 +3100,13 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63">
         <v>4.0949999999999998</v>
@@ -3217,15 +3124,15 @@
         <v>1.3120000000000001</v>
       </c>
       <c r="L63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B64">
         <v>2196</v>
@@ -3234,13 +3141,13 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E64">
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G64">
         <v>1.7030000000000001</v>
@@ -3258,15 +3165,15 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B65">
         <v>2196</v>
@@ -3275,16 +3182,16 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E65">
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3299,15 +3206,15 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>2196</v>
@@ -3316,13 +3223,13 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E66">
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G66">
         <v>3.968</v>
@@ -3340,15 +3247,15 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B67">
         <v>2196</v>
@@ -3357,16 +3264,16 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E67">
         <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3381,15 +3288,15 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B68">
         <v>2396</v>
@@ -3398,16 +3305,16 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3422,15 +3329,15 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>2396</v>
@@ -3439,13 +3346,13 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G69">
         <v>1.92</v>
@@ -3463,15 +3370,15 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B70">
         <v>2396</v>
@@ -3480,13 +3387,13 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E70">
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G70">
         <v>1.44</v>
@@ -3504,15 +3411,15 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71">
         <v>2396</v>
@@ -3521,16 +3428,16 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E71">
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3545,15 +3452,15 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>2396</v>
@@ -3562,13 +3469,13 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E72">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G72">
         <v>1.248</v>
@@ -3586,15 +3493,15 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>2396</v>
@@ -3603,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E73">
         <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G73">
         <v>1.216</v>
@@ -3627,15 +3534,15 @@
         <v>2.0150000000000001</v>
       </c>
       <c r="L73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74">
         <v>2194</v>
@@ -3644,16 +3551,16 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3668,15 +3575,15 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B75">
         <v>2194</v>
@@ -3685,16 +3592,16 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -3709,15 +3616,15 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B76">
         <v>2194</v>
@@ -3726,16 +3633,16 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E76">
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -3750,15 +3657,15 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B77">
         <v>2194</v>
@@ -3767,16 +3674,16 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E77">
         <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3791,15 +3698,15 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B78">
         <v>2194</v>
@@ -3808,16 +3715,16 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E78">
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3832,15 +3739,15 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B79">
         <v>2194</v>
@@ -3849,16 +3756,16 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E79">
         <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3873,15 +3780,15 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B80">
         <v>2208</v>
@@ -3890,13 +3797,13 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G80">
         <v>1.9850000000000001</v>
@@ -3914,15 +3821,15 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B81">
         <v>2208</v>
@@ -3931,16 +3838,16 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3955,15 +3862,15 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>2208</v>
@@ -3972,16 +3879,16 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E82">
         <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3996,15 +3903,15 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B83">
         <v>2208</v>
@@ -4013,16 +3920,16 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E83">
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4037,15 +3944,15 @@
         <v>3.7450000000000001</v>
       </c>
       <c r="L83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>2208</v>
@@ -4054,13 +3961,13 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E84">
         <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G84">
         <v>3.169</v>
@@ -4078,15 +3985,15 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B85">
         <v>2208</v>
@@ -4095,16 +4002,16 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E85">
         <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4119,15 +4026,15 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B86">
         <v>2276</v>
@@ -4136,13 +4043,13 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G86">
         <v>1.569</v>
@@ -4160,15 +4067,15 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="L86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B87">
         <v>2276</v>
@@ -4177,13 +4084,13 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G87">
         <v>1.121</v>
@@ -4201,15 +4108,15 @@
         <v>1.4730000000000001</v>
       </c>
       <c r="L87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B88">
         <v>2276</v>
@@ -4218,16 +4125,16 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E88">
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4242,15 +4149,15 @@
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B89">
         <v>2276</v>
@@ -4259,13 +4166,13 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E89">
         <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G89">
         <v>1.472</v>
@@ -4283,15 +4190,15 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B90">
         <v>2276</v>
@@ -4300,13 +4207,13 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E90">
         <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G90">
         <v>5.6280000000000001</v>
@@ -4324,15 +4231,15 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B91">
         <v>2276</v>
@@ -4341,16 +4248,16 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E91">
         <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4365,15 +4272,15 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>2274</v>
@@ -4382,13 +4289,13 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G92">
         <v>5.181</v>
@@ -4406,15 +4313,15 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <v>2274</v>
@@ -4423,16 +4330,16 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4447,15 +4354,15 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>2274</v>
@@ -4464,13 +4371,13 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G94">
         <v>2.593</v>
@@ -4488,15 +4395,15 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B95">
         <v>2274</v>
@@ -4505,16 +4412,16 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E95">
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4529,15 +4436,15 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>2274</v>
@@ -4546,13 +4453,13 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E96">
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G96">
         <v>0.89700000000000002</v>
@@ -4570,15 +4477,15 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B97">
         <v>2274</v>
@@ -4587,13 +4494,13 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E97">
         <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>1.121</v>
@@ -4611,247 +4518,14 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="L97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>